--- a/PSM_Analysis/balance_check.xlsx
+++ b/PSM_Analysis/balance_check.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.82969193565973</v>
+        <v>57.69589866624196</v>
       </c>
       <c r="C2" t="n">
-        <v>6.386828875673004</v>
+        <v>25.66461883207687</v>
       </c>
       <c r="D2" t="n">
-        <v>27103.69954586209</v>
+        <v>25805.47448773564</v>
       </c>
       <c r="E2" t="n">
-        <v>23324.23370696848</v>
+        <v>17890.31024713103</v>
       </c>
       <c r="F2" t="n">
-        <v>24809.34744107378</v>
+        <v>23196.44586086401</v>
       </c>
       <c r="G2" t="n">
-        <v>23855.80962521421</v>
+        <v>19734.14295917172</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.68051022043333</v>
+        <v>45.17069368069429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7980802872012454</v>
+        <v>24.47609133515596</v>
       </c>
       <c r="D3" t="n">
-        <v>734.5841200716085</v>
+        <v>646.441765231679</v>
       </c>
       <c r="E3" t="n">
-        <v>463.8762556484076</v>
+        <v>398.3216435937343</v>
       </c>
       <c r="F3" t="n">
-        <v>496.6002698279549</v>
+        <v>504.6642438196052</v>
       </c>
       <c r="G3" t="n">
-        <v>493.3740182411338</v>
+        <v>412.8348987591718</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.20358191336684</v>
+        <v>30.52737508830429</v>
       </c>
       <c r="C4" t="n">
-        <v>6.931829978032909</v>
+        <v>-3.25342650400172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8545592455255493</v>
+        <v>0.9081652348473359</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7865329746323684</v>
+        <v>0.7778406626887615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8464673490077262</v>
+        <v>0.8338215386298263</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8150840891930828</v>
+        <v>0.8461606580736637</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.835317554492523</v>
+        <v>56.40632580799942</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.88021992879143</v>
+        <v>31.38721858305881</v>
       </c>
       <c r="D5" t="n">
-        <v>5.301842073736781</v>
+        <v>5.564198516558319</v>
       </c>
       <c r="E5" t="n">
-        <v>5.16341101627827</v>
+        <v>4.598412284288773</v>
       </c>
       <c r="F5" t="n">
-        <v>5.118755594216001</v>
+        <v>5.319976460766082</v>
       </c>
       <c r="G5" t="n">
-        <v>5.287570561840295</v>
+        <v>4.786011979545576</v>
       </c>
     </row>
   </sheetData>

--- a/PSM_Analysis/balance_check.xlsx
+++ b/PSM_Analysis/balance_check.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.69589866624196</v>
+        <v>54.79527629708006</v>
       </c>
       <c r="C2" t="n">
-        <v>25.66461883207687</v>
+        <v>27.07957546349678</v>
       </c>
       <c r="D2" t="n">
-        <v>25805.47448773564</v>
+        <v>25670.03798528736</v>
       </c>
       <c r="E2" t="n">
-        <v>17890.31024713103</v>
+        <v>18023.64533453866</v>
       </c>
       <c r="F2" t="n">
-        <v>23196.44586086401</v>
+        <v>24424.79240981256</v>
       </c>
       <c r="G2" t="n">
-        <v>19734.14295917172</v>
+        <v>20703.09745692547</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.17069368069429</v>
+        <v>40.61063647053126</v>
       </c>
       <c r="C3" t="n">
-        <v>24.47609133515596</v>
+        <v>16.95772191014207</v>
       </c>
       <c r="D3" t="n">
-        <v>646.441765231679</v>
+        <v>564.841827248134</v>
       </c>
       <c r="E3" t="n">
-        <v>398.3216435937343</v>
+        <v>365.6013758776949</v>
       </c>
       <c r="F3" t="n">
-        <v>504.6642438196052</v>
+        <v>489.4147938502948</v>
       </c>
       <c r="G3" t="n">
-        <v>412.8348987591718</v>
+        <v>418.8668090592963</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.52737508830429</v>
+        <v>29.20600871943195</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.25342650400172</v>
+        <v>31.29248468081423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9081652348473359</v>
+        <v>0.9081652348473357</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7778406626887615</v>
+        <v>0.7957999755779961</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8338215386298263</v>
+        <v>0.8556409982423361</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8461606580736637</v>
+        <v>0.7644136779894746</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.40632580799942</v>
+        <v>66.930335294065</v>
       </c>
       <c r="C5" t="n">
-        <v>31.38721858305881</v>
+        <v>30.90230264815472</v>
       </c>
       <c r="D5" t="n">
-        <v>5.564198516558319</v>
+        <v>5.564198516558321</v>
       </c>
       <c r="E5" t="n">
         <v>4.598412284288773</v>
       </c>
       <c r="F5" t="n">
-        <v>5.319976460766082</v>
+        <v>5.455951051856328</v>
       </c>
       <c r="G5" t="n">
-        <v>4.786011979545576</v>
+        <v>4.983426003443236</v>
       </c>
     </row>
   </sheetData>

--- a/PSM_Analysis/balance_check.xlsx
+++ b/PSM_Analysis/balance_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
         <v>54.79527629708006</v>
       </c>
       <c r="C2" t="n">
-        <v>27.07957546349678</v>
+        <v>23.82761947807294</v>
       </c>
       <c r="D2" t="n">
         <v>25670.03798528736</v>
@@ -489,10 +489,10 @@
         <v>18023.64533453866</v>
       </c>
       <c r="F2" t="n">
-        <v>24424.79240981256</v>
+        <v>24265.50762119939</v>
       </c>
       <c r="G2" t="n">
-        <v>20703.09745692547</v>
+        <v>20832.59419300083</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         <v>40.61063647053126</v>
       </c>
       <c r="C3" t="n">
-        <v>16.95772191014207</v>
+        <v>32.75795382450207</v>
       </c>
       <c r="D3" t="n">
         <v>564.841827248134</v>
@@ -514,10 +514,10 @@
         <v>365.6013758776949</v>
       </c>
       <c r="F3" t="n">
-        <v>489.4147938502948</v>
+        <v>469.9557933978166</v>
       </c>
       <c r="G3" t="n">
-        <v>418.8668090592963</v>
+        <v>352.2859646227473</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         <v>29.20600871943195</v>
       </c>
       <c r="C4" t="n">
-        <v>31.29248468081423</v>
+        <v>7.925025566480495</v>
       </c>
       <c r="D4" t="n">
         <v>0.9081652348473357</v>
@@ -539,35 +539,10 @@
         <v>0.7957999755779961</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8556409982423361</v>
+        <v>0.871370734351585</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7644136779894746</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ln_fdi</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>66.930335294065</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30.90230264815472</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.564198516558321</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.598412284288773</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.455951051856328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.983426003443236</v>
+        <v>0.8434482578667113</v>
       </c>
     </row>
   </sheetData>
